--- a/correlations.xlsx
+++ b/correlations.xlsx
@@ -412,22 +412,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.1076525965742347</v>
+        <v>-0.06834376463011581</v>
       </c>
       <c r="D2">
-        <v>-0.007494661306954764</v>
+        <v>0.04761314242065381</v>
       </c>
       <c r="E2">
-        <v>0.7081340382814919</v>
+        <v>0.701174489993713</v>
       </c>
       <c r="F2">
-        <v>0.3998263907336105</v>
+        <v>0.3789204356625721</v>
       </c>
       <c r="G2">
-        <v>-0.397391304347826</v>
+        <v>-0.4295652173913043</v>
       </c>
       <c r="H2">
-        <v>0.4269565217391304</v>
+        <v>0.3930434782608695</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.1076525965742347</v>
+        <v>-0.06834376463011581</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.007494661306954764</v>
+        <v>0.04761314242065381</v>
       </c>
       <c r="C4">
         <v>0.7697674836044476</v>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.7081340382814919</v>
+        <v>0.701174489993713</v>
       </c>
       <c r="C5">
         <v>-0.1751791600771529</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.3998263907336105</v>
+        <v>0.3789204356625721</v>
       </c>
       <c r="C6">
         <v>0.03132291112630656</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.397391304347826</v>
+        <v>-0.4295652173913043</v>
       </c>
       <c r="C7">
         <v>0.2175386495089307</v>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.4269565217391304</v>
+        <v>0.3930434782608695</v>
       </c>
       <c r="C8">
         <v>0.0808511202486991</v>
@@ -669,16 +669,16 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.00182538957660128</v>
+        <v>0.002280907855192856</v>
       </c>
       <c r="F2">
-        <v>0.4511023984602493</v>
+        <v>0.5515432411035945</v>
       </c>
       <c r="G2">
-        <v>0.4511023984602493</v>
+        <v>0.3900630477637689</v>
       </c>
       <c r="H2">
-        <v>0.3943562904273709</v>
+        <v>0.5127747990090142</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.00182538957660128</v>
+        <v>0.002280907855192856</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.4511023984602493</v>
+        <v>0.5515432411035945</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.4511023984602493</v>
+        <v>0.3900630477637689</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.3943562904273709</v>
+        <v>0.5127747990090142</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -921,31 +921,31 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.5391304347826086</v>
+        <v>0.5469565217391303</v>
       </c>
       <c r="C2">
-        <v>-0.1612204261908228</v>
+        <v>-0.1019610262936555</v>
       </c>
       <c r="D2">
-        <v>0.6583649021454228</v>
+        <v>0.6535497333132422</v>
       </c>
       <c r="E2">
-        <v>0.5408695652173913</v>
+        <v>0.5486956521739129</v>
       </c>
       <c r="F2">
-        <v>0.2690111926800067</v>
+        <v>0.2655061608535571</v>
       </c>
       <c r="G2">
-        <v>0.09714677782434469</v>
+        <v>0.07057299554952395</v>
       </c>
       <c r="H2">
-        <v>0.6054807010367548</v>
+        <v>0.6150500799324506</v>
       </c>
       <c r="I2">
-        <v>0.7309011024773329</v>
+        <v>0.7139965121583196</v>
       </c>
       <c r="J2">
-        <v>0.380920029682232</v>
+        <v>0.3537740045784407</v>
       </c>
     </row>
     <row r="3">
@@ -1122,31 +1122,31 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.0264555943438948</v>
+        <v>0.02312729772726034</v>
       </c>
       <c r="C2">
-        <v>0.5607217474658335</v>
+        <v>0.7286395216583434</v>
       </c>
       <c r="D2">
         <v>0.005595731405261763</v>
       </c>
       <c r="E2">
-        <v>0.0264555943438948</v>
+        <v>0.02312729772726034</v>
       </c>
       <c r="F2">
-        <v>0.3055318550038806</v>
+        <v>0.3148036234696935</v>
       </c>
       <c r="G2">
-        <v>0.7108018682469656</v>
+        <v>0.7824999202104306</v>
       </c>
       <c r="H2">
-        <v>0.01236436139124462</v>
+        <v>0.009945508088051646</v>
       </c>
       <c r="I2">
-        <v>0.001793181279643523</v>
+        <v>0.00321041141559914</v>
       </c>
       <c r="J2">
-        <v>0.1491588810033529</v>
+        <v>0.1703244915545735</v>
       </c>
     </row>
     <row r="3">
@@ -1162,7 +1162,7 @@
         <v>0.520547649307127</v>
       </c>
       <c r="D3">
-        <v>0.7617147373425336</v>
+        <v>0.7824999202104306</v>
       </c>
       <c r="E3">
         <v>0.2473813045493365</v>
@@ -1171,7 +1171,7 @@
         <v>0.520547649307127</v>
       </c>
       <c r="G3">
-        <v>0.1496110490362355</v>
+        <v>0.157922773982693</v>
       </c>
       <c r="H3">
         <v>0.3008175566313905</v>
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.0248669368983356</v>
+        <v>0.02312729772726034</v>
       </c>
       <c r="C4">
-        <v>0.5889832477663178</v>
+        <v>0.6086160226918617</v>
       </c>
       <c r="D4">
-        <v>0.0248669368983356</v>
+        <v>0.02312729772726034</v>
       </c>
       <c r="E4">
         <v>0.03628133337378243</v>
@@ -1208,7 +1208,7 @@
         <v>0.9227073201856887</v>
       </c>
       <c r="H4">
-        <v>0.0264555943438948</v>
+        <v>0.02312729772726034</v>
       </c>
       <c r="I4">
         <v>0.02784949782098225</v>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.5889832477663178</v>
+        <v>0.6086160226918617</v>
       </c>
       <c r="C5">
-        <v>0.1496110490362355</v>
+        <v>0.157922773982693</v>
       </c>
       <c r="D5">
         <v>0.005595731405261763</v>
@@ -1242,13 +1242,13 @@
         <v>0.1169600393903559</v>
       </c>
       <c r="H5">
-        <v>0.7108018682469656</v>
+        <v>0.7286395216583434</v>
       </c>
       <c r="I5">
         <v>0.005595731405261763</v>
       </c>
       <c r="J5">
-        <v>0.1496110490362355</v>
+        <v>0.157922773982693</v>
       </c>
     </row>
   </sheetData>

--- a/correlations.xlsx
+++ b/correlations.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\P_nekhaeva\polar_2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D37233A-F95C-46FA-BA76-A5C9B5773BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cor1" sheetId="1" r:id="rId1"/>
@@ -12,13 +18,69 @@
     <sheet name="cor2" sheetId="3" r:id="rId3"/>
     <sheet name="cor.pval2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>light level</t>
+  </si>
+  <si>
+    <t>wind_20cm</t>
+  </si>
+  <si>
+    <t>wind_2m</t>
+  </si>
+  <si>
+    <t>temperature_0cm</t>
+  </si>
+  <si>
+    <t>temperature_2m</t>
+  </si>
+  <si>
+    <t>humidity_relative</t>
+  </si>
+  <si>
+    <t>humidity_absolute</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Acari</t>
+  </si>
+  <si>
+    <t>Collembola</t>
+  </si>
+  <si>
+    <t>Diptera</t>
+  </si>
+  <si>
+    <t>B. parvula</t>
+  </si>
+  <si>
+    <t>I. chaos</t>
+  </si>
+  <si>
+    <t>M. indistincta</t>
+  </si>
+  <si>
+    <t>P. crassicauda</t>
+  </si>
+  <si>
+    <t>Araneae</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,21 +120,29 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -110,9 +180,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -144,9 +214,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,9 +266,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -353,122 +459,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>light level</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>wind_20cm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>wind_2m</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>temperature_0cm</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>temperature_2m</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>humidity_relative</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>humidity_absolute</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>light level</t>
-        </is>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.06834376463011581</v>
+        <v>-6.8343764630115808E-2</v>
       </c>
       <c r="D2">
-        <v>0.04761314242065381</v>
+        <v>4.7613142420653808E-2</v>
       </c>
       <c r="E2">
-        <v>0.701174489993713</v>
+        <v>0.70117448999371301</v>
       </c>
       <c r="F2">
-        <v>0.3789204356625721</v>
+        <v>0.37892043566257211</v>
       </c>
       <c r="G2">
-        <v>-0.4295652173913043</v>
+        <v>-0.42956521739130432</v>
       </c>
       <c r="H2">
-        <v>0.3930434782608695</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>wind_20cm</t>
-        </is>
+        <v>0.39304347826086949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.06834376463011581</v>
+        <v>-6.8343764630115808E-2</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.7697674836044476</v>
+        <v>0.76976748360444758</v>
       </c>
       <c r="E3">
         <v>-0.1751791600771529</v>
       </c>
       <c r="F3">
-        <v>0.03132291112630656</v>
+        <v>3.1322911126306557E-2</v>
       </c>
       <c r="G3">
         <v>0.2175386495089307</v>
       </c>
       <c r="H3">
-        <v>0.0808511202486991</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>wind_2m</t>
-        </is>
+        <v>8.0851120248699102E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.04761314242065381</v>
+        <v>4.7613142420653808E-2</v>
       </c>
       <c r="C4">
-        <v>0.7697674836044476</v>
+        <v>0.76976748360444758</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -477,23 +563,21 @@
         <v>-0.1885506851363547</v>
       </c>
       <c r="F4">
-        <v>0.04394229972721265</v>
+        <v>4.3942299727212648E-2</v>
       </c>
       <c r="G4">
-        <v>0.08111868708703981</v>
+        <v>8.1118687087039815E-2</v>
       </c>
       <c r="H4">
-        <v>0.05158090428904162</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>temperature_0cm</t>
-        </is>
+        <v>5.1580904289041621E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.701174489993713</v>
+        <v>0.70117448999371301</v>
       </c>
       <c r="C5">
         <v>-0.1751791600771529</v>
@@ -505,94 +589,88 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.7453165409174756</v>
+        <v>0.74531654091747557</v>
       </c>
       <c r="G5">
-        <v>-0.4710744247290269</v>
+        <v>-0.47107442472902689</v>
       </c>
       <c r="H5">
-        <v>0.578512451421612</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>temperature_2m</t>
-        </is>
+        <v>0.57851245142161201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.3789204356625721</v>
+        <v>0.37892043566257211</v>
       </c>
       <c r="C6">
-        <v>0.03132291112630656</v>
+        <v>3.1322911126306557E-2</v>
       </c>
       <c r="D6">
-        <v>0.04394229972721265</v>
+        <v>4.3942299727212648E-2</v>
       </c>
       <c r="E6">
-        <v>0.7453165409174756</v>
+        <v>0.74531654091747557</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>-0.4438160045289206</v>
+        <v>-0.44381600452892062</v>
       </c>
       <c r="H6">
-        <v>0.4194257236127091</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>humidity_relative</t>
-        </is>
+        <v>0.41942572361270908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.4295652173913043</v>
+        <v>-0.42956521739130432</v>
       </c>
       <c r="C7">
         <v>0.2175386495089307</v>
       </c>
       <c r="D7">
-        <v>0.08111868708703981</v>
+        <v>8.1118687087039815E-2</v>
       </c>
       <c r="E7">
-        <v>-0.4710744247290269</v>
+        <v>-0.47107442472902689</v>
       </c>
       <c r="F7">
-        <v>-0.4438160045289206</v>
+        <v>-0.44381600452892062</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.3347826086956521</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>humidity_absolute</t>
-        </is>
+        <v>0.33478260869565207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.3930434782608695</v>
+        <v>0.39304347826086949</v>
       </c>
       <c r="C8">
-        <v>0.0808511202486991</v>
+        <v>8.0851120248699102E-2</v>
       </c>
       <c r="D8">
-        <v>0.05158090428904162</v>
+        <v>5.1580904289041621E-2</v>
       </c>
       <c r="E8">
-        <v>0.578512451421612</v>
+        <v>0.57851245142161201</v>
       </c>
       <c r="F8">
-        <v>0.4194257236127091</v>
+        <v>0.41942572361270908</v>
       </c>
       <c r="G8">
-        <v>0.3347826086956521</v>
+        <v>0.33478260869565207</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -604,63 +682,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>light level</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>wind_20cm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>wind_2m</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>temperature_0cm</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>temperature_2m</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>humidity_relative</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>humidity_absolute</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>light level</t>
-        </is>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>2.27908007885582e-05</v>
+        <v>2.2790800788558199E-5</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -669,32 +731,30 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.002280907855192856</v>
+        <v>2.2809078551928562E-3</v>
       </c>
       <c r="F2">
-        <v>0.5515432411035945</v>
+        <v>0.55154324110359454</v>
       </c>
       <c r="G2">
-        <v>0.3900630477637689</v>
+        <v>0.39006304776376888</v>
       </c>
       <c r="H2">
-        <v>0.5127747990090142</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>wind_20cm</t>
-        </is>
+        <v>0.51277479900901424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.970006345504759e-172</v>
+        <v>5.9700063455047591E-172</v>
       </c>
       <c r="D3">
-        <v>0.0002665534151811775</v>
+        <v>2.6655341518117752E-4</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -709,20 +769,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>wind_2m</t>
-        </is>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.0002665534151811775</v>
+        <v>2.6655341518117752E-4</v>
       </c>
       <c r="D4">
-        <v>5.970006345504759e-172</v>
+        <v>5.9700063455047591E-172</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -737,14 +795,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>temperature_0cm</t>
-        </is>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.002280907855192856</v>
+        <v>2.2809078551928562E-3</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -756,23 +812,21 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0005842119160101172</v>
+        <v>5.8421191601011721E-4</v>
       </c>
       <c r="G5">
         <v>0.2601668183817013</v>
       </c>
       <c r="H5">
-        <v>0.04480401120253207</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>temperature_2m</t>
-        </is>
+        <v>4.4804011202532072E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.5515432411035945</v>
+        <v>0.55154324110359454</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -781,26 +835,24 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.0005842119160101172</v>
+        <v>5.8421191601011721E-4</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.344466618045042</v>
+        <v>0.34446661804504197</v>
       </c>
       <c r="H6">
-        <v>0.3943562904273709</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>humidity_relative</t>
-        </is>
+        <v>0.39435629042737091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.3900630477637689</v>
+        <v>0.39006304776376888</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -812,23 +864,21 @@
         <v>0.2601668183817013</v>
       </c>
       <c r="F7">
-        <v>0.344466618045042</v>
+        <v>0.34446661804504197</v>
       </c>
       <c r="G7">
-        <v>2.27908007885582e-05</v>
+        <v>2.2790800788558199E-5</v>
       </c>
       <c r="H7">
-        <v>0.8335396776226527</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>humidity_absolute</t>
-        </is>
+        <v>0.83353967762265269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.5127747990090142</v>
+        <v>0.51277479900901424</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -837,16 +887,16 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.04480401120253207</v>
+        <v>4.4804011202532072E-2</v>
       </c>
       <c r="F8">
-        <v>0.3943562904273709</v>
+        <v>0.39435629042737091</v>
       </c>
       <c r="G8">
-        <v>0.8335396776226527</v>
+        <v>0.83353967762265269</v>
       </c>
       <c r="H8">
-        <v>2.27908007885582e-05</v>
+        <v>2.2790800788558199E-5</v>
       </c>
     </row>
   </sheetData>
@@ -855,199 +905,173 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Acari</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Aranei</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Collembola</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Diptera</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>B. parvula</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>I. chaos</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M. indistincta</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>P. crassicauda</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>light level</t>
-        </is>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5469565217391303</v>
+        <v>0.54695652173913034</v>
       </c>
       <c r="C2">
         <v>-0.1019610262936555</v>
       </c>
       <c r="D2">
-        <v>0.6535497333132422</v>
+        <v>0.65354973331324218</v>
       </c>
       <c r="E2">
-        <v>0.5486956521739129</v>
+        <v>0.54869565217391292</v>
       </c>
       <c r="F2">
         <v>0.2655061608535571</v>
       </c>
       <c r="G2">
-        <v>0.07057299554952395</v>
+        <v>7.0572995549523954E-2</v>
       </c>
       <c r="H2">
-        <v>0.6150500799324506</v>
+        <v>0.61505007993245064</v>
       </c>
       <c r="I2">
-        <v>0.7139965121583196</v>
+        <v>0.71399651215831961</v>
       </c>
       <c r="J2">
-        <v>0.3537740045784407</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>wind_20cm</t>
-        </is>
+        <v>0.35377400457844072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.305536830111106</v>
+        <v>0.30553683011110599</v>
       </c>
       <c r="C3">
         <v>0.1781708762109</v>
       </c>
       <c r="D3">
-        <v>-0.07735396575217891</v>
+        <v>-7.7353965752178913E-2</v>
       </c>
       <c r="E3">
-        <v>0.3122371991924899</v>
+        <v>0.31223719919248988</v>
       </c>
       <c r="F3">
-        <v>0.1796015901087542</v>
+        <v>0.17960159010875421</v>
       </c>
       <c r="G3">
-        <v>0.3701385760212914</v>
+        <v>0.37013857602129141</v>
       </c>
       <c r="H3">
-        <v>0.2757284228765391</v>
+        <v>0.27572842287653909</v>
       </c>
       <c r="I3">
-        <v>-0.06558556398424198</v>
+        <v>-6.5585563984241979E-2</v>
       </c>
       <c r="J3">
-        <v>0.2833938421292339</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>temperature_0cm</t>
-        </is>
+        <v>0.28339384212923391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0.5554589477183447</v>
       </c>
       <c r="C4">
-        <v>0.1440717098648905</v>
+        <v>0.14407170986489051</v>
       </c>
       <c r="D4">
-        <v>0.5605543272956173</v>
+        <v>0.56055432729561727</v>
       </c>
       <c r="E4">
-        <v>0.50369730732799</v>
+        <v>0.50369730732799001</v>
       </c>
       <c r="F4">
-        <v>0.465714568082695</v>
+        <v>0.46571456808269501</v>
       </c>
       <c r="G4">
-        <v>0.0209196146626343</v>
+        <v>2.0919614662634301E-2</v>
       </c>
       <c r="H4">
-        <v>0.5402523933855528</v>
+        <v>0.54025239338555275</v>
       </c>
       <c r="I4">
-        <v>0.524492818660891</v>
+        <v>0.52449281866089104</v>
       </c>
       <c r="J4">
-        <v>0.1857245519479026</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>humidity_relative</t>
-        </is>
+        <v>0.18572455194790261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.1417391304347826</v>
+        <v>0.14173913043478259</v>
       </c>
       <c r="C5">
         <v>-0.3655782096597307</v>
       </c>
       <c r="D5">
-        <v>-0.6719349233997499</v>
+        <v>-0.67193492339974992</v>
       </c>
       <c r="E5">
         <v>0.2026086956521739</v>
       </c>
       <c r="F5">
-        <v>-0.4087743367596844</v>
+        <v>-0.40877433675968439</v>
       </c>
       <c r="G5">
-        <v>0.4064481780722584</v>
+        <v>0.40644817807225841</v>
       </c>
       <c r="H5">
-        <v>0.09830361956487542</v>
+        <v>9.8303619564875419E-2</v>
       </c>
       <c r="I5">
-        <v>-0.647712723802189</v>
+        <v>-0.64771272380218903</v>
       </c>
       <c r="J5">
-        <v>0.3712875691615318</v>
+        <v>0.37128756916153183</v>
       </c>
     </row>
   </sheetData>
@@ -1056,184 +1080,158 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Acari</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Aranei</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Collembola</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Diptera</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>B. parvula</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>I. chaos</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M. indistincta</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>P. crassicauda</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>light level</t>
-        </is>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.02312729772726034</v>
+        <v>2.312729772726034E-2</v>
       </c>
       <c r="C2">
-        <v>0.7286395216583434</v>
+        <v>0.72863952165834345</v>
       </c>
       <c r="D2">
-        <v>0.005595731405261763</v>
+        <v>5.595731405261763E-3</v>
       </c>
       <c r="E2">
-        <v>0.02312729772726034</v>
+        <v>2.312729772726034E-2</v>
       </c>
       <c r="F2">
-        <v>0.3148036234696935</v>
+        <v>0.31480362346969348</v>
       </c>
       <c r="G2">
-        <v>0.7824999202104306</v>
+        <v>0.78249992021043058</v>
       </c>
       <c r="H2">
-        <v>0.009945508088051646</v>
+        <v>9.9455080880516463E-3</v>
       </c>
       <c r="I2">
-        <v>0.00321041141559914</v>
+        <v>3.21041141559914E-3</v>
       </c>
       <c r="J2">
-        <v>0.1703244915545735</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>wind_20cm</t>
-        </is>
+        <v>0.17032449155457349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2511941866110076</v>
+        <v>0.25119418661100762</v>
       </c>
       <c r="C3">
-        <v>0.520547649307127</v>
+        <v>0.52054764930712705</v>
       </c>
       <c r="D3">
-        <v>0.7824999202104306</v>
+        <v>0.78249992021043058</v>
       </c>
       <c r="E3">
-        <v>0.2473813045493365</v>
+        <v>0.24738130454933649</v>
       </c>
       <c r="F3">
-        <v>0.520547649307127</v>
+        <v>0.52054764930712705</v>
       </c>
       <c r="G3">
         <v>0.157922773982693</v>
       </c>
       <c r="H3">
-        <v>0.3008175566313905</v>
+        <v>0.30081755663139048</v>
       </c>
       <c r="I3">
-        <v>0.7824999202104306</v>
+        <v>0.78249992021043058</v>
       </c>
       <c r="J3">
-        <v>0.2939214015134289</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>temperature_0cm</t>
-        </is>
+        <v>0.29392140151342888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0.02312729772726034</v>
+        <v>2.312729772726034E-2</v>
       </c>
       <c r="C4">
-        <v>0.6086160226918617</v>
+        <v>0.60861602269186166</v>
       </c>
       <c r="D4">
-        <v>0.02312729772726034</v>
+        <v>2.312729772726034E-2</v>
       </c>
       <c r="E4">
-        <v>0.03628133337378243</v>
+        <v>3.6281333373782428E-2</v>
       </c>
       <c r="F4">
-        <v>0.06041799772563266</v>
+        <v>6.0417997725632659E-2</v>
       </c>
       <c r="G4">
-        <v>0.9227073201856887</v>
+        <v>0.92270732018568868</v>
       </c>
       <c r="H4">
-        <v>0.02312729772726034</v>
+        <v>2.312729772726034E-2</v>
       </c>
       <c r="I4">
-        <v>0.02784949782098225</v>
+        <v>2.7849497820982248E-2</v>
       </c>
       <c r="J4">
-        <v>0.520547649307127</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>humidity_relative</t>
-        </is>
+        <v>0.52054764930712705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.6086160226918617</v>
+        <v>0.60861602269186166</v>
       </c>
       <c r="C5">
         <v>0.157922773982693</v>
       </c>
       <c r="D5">
-        <v>0.005595731405261763</v>
+        <v>5.595731405261763E-3</v>
       </c>
       <c r="E5">
-        <v>0.4906970307454879</v>
+        <v>0.49069703074548793</v>
       </c>
       <c r="F5">
         <v>0.1169600393903559</v>
@@ -1242,10 +1240,10 @@
         <v>0.1169600393903559</v>
       </c>
       <c r="H5">
-        <v>0.7286395216583434</v>
+        <v>0.72863952165834345</v>
       </c>
       <c r="I5">
-        <v>0.005595731405261763</v>
+        <v>5.595731405261763E-3</v>
       </c>
       <c r="J5">
         <v>0.157922773982693</v>
